--- a/biology/Médecine/Petit_muscle_de_l'hélix/Petit_muscle_de_l'hélix.xlsx
+++ b/biology/Médecine/Petit_muscle_de_l'hélix/Petit_muscle_de_l'hélix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Petit_muscle_de_l%27h%C3%A9lix</t>
+          <t>Petit_muscle_de_l'hélix</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le petit muscle de l'hélix  est un petit muscle peaucier du pavillon de l'oreille.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Petit_muscle_de_l%27h%C3%A9lix</t>
+          <t>Petit_muscle_de_l'hélix</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Le petit muscle de l'hélix nait en arrière de l'épine de l'hélix.
-Trajet
-Les fibres musculaires descendent obliquement en arrière. Il recouvre la partie de l'hélix juste au-dessus du tragus.
-Terminaison
-Il se termine dans la peau de la racine de l'hélix.
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le petit muscle de l'hélix nait en arrière de l'épine de l'hélix.
 </t>
         </is>
       </c>
@@ -529,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Petit_muscle_de_l%27h%C3%A9lix</t>
+          <t>Petit_muscle_de_l'hélix</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Innervation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est innervé par un rameau de la branche temporo-faciale du nerf facial.
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fibres musculaires descendent obliquement en arrière. Il recouvre la partie de l'hélix juste au-dessus du tragus.
 </t>
         </is>
       </c>
@@ -560,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Petit_muscle_de_l%27h%C3%A9lix</t>
+          <t>Petit_muscle_de_l'hélix</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,12 +594,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Action</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il ajuste la forme du bord antérieur du cartilage de l'oreille, mais cette action est très minime.
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se termine dans la peau de la racine de l'hélix.
 </t>
         </is>
       </c>
@@ -591,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Petit_muscle_de_l%27h%C3%A9lix</t>
+          <t>Petit_muscle_de_l'hélix</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,12 +631,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Embryologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle est dérivé du deuxième  arc branchial.
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est innervé par un rameau de la branche temporo-faciale du nerf facial.
 </t>
         </is>
       </c>
@@ -622,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Petit_muscle_de_l%27h%C3%A9lix</t>
+          <t>Petit_muscle_de_l'hélix</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,12 +664,80 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Action</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ajuste la forme du bord antérieur du cartilage de l'oreille, mais cette action est très minime.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Petit_muscle_de_l'hélix</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Petit_muscle_de_l%27h%C3%A9lix</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Embryologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle est dérivé du deuxième  arc branchial.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Petit_muscle_de_l'hélix</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Petit_muscle_de_l%27h%C3%A9lix</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Anatomie comparée</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il semble que ce n'est que chez les primates que le grand muscle de l'hélix et le petit muscle de l'hélix soient deux muscles distincts[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il semble que ce n'est que chez les primates que le grand muscle de l'hélix et le petit muscle de l'hélix soient deux muscles distincts.
 </t>
         </is>
       </c>
